--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117723.6194400108</v>
+        <v>20778650.42910616</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117723.6194400108</v>
+        <v>20778650.42910616</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3218.216729822414</v>
+        <v>295918.2136079476</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3218.216729822414</v>
+        <v>295918.2136079476</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035379255.710284</v>
+        <v>42048743.0228347</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7886.814625429253</v>
+        <v>922245.8425318212</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15438.42316798157</v>
+        <v>1769086.113025271</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22919.40947456334</v>
+        <v>2615926.383518723</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30547.5246658688</v>
+        <v>3464786.136783337</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38230.3013065779</v>
+        <v>4313434.658166897</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45941.61054118849</v>
+        <v>5162083.17955028</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53587.22634767213</v>
+        <v>6010731.700933632</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61229.8751971365</v>
+        <v>6859380.222316992</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68878.48122000374</v>
+        <v>7708028.743700383</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76556.79389743532</v>
+        <v>8556677.26508406</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84244.46884208322</v>
+        <v>9405325.786467569</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91701.14684875119</v>
+        <v>10251954.82507982</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99142.06500886366</v>
+        <v>11098795.09557327</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>106826.7131601553</v>
+        <v>11920719.10432179</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114448.6293078335</v>
+        <v>12744671.65040081</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>49.00000000005531</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>361.0000000000259</v>
@@ -27055,10 +27055,10 @@
         <v>48.9999999997994</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>361.0000000000854</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>91</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
